--- a/ancomBC-results-BH-genus-by-treatment.xlsx
+++ b/ancomBC-results-BH-genus-by-treatment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliemeyer/Documents/AMR-16S-rRNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliemeyer/Documents/GitHub/AMR-16S-rRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039A9B08-3E6E-AA4F-9177-6BF6E9000D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A79171-9FEA-DA4D-8E67-5CB93EAE5BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{ECEB3C78-6A26-444C-A2C5-5AF7BB74EAFC}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{ECEB3C78-6A26-444C-A2C5-5AF7BB74EAFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{76F343B6-1ABE-174E-AF1F-7640008490D5}" name="ancomBC-results-BH-genus-by-treatment" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juliemeyer/Documents/AMR-16S-rRNA/ancomBC-results-BH-genus-by-treatment.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/juliemeyer/Documents/AMR-16S-rRNA/ancomBC-results-BH-genus-by-treatment.txt" space="1" consecutive="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -649,12 +649,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -669,9 +675,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +1000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B624D257-0C3B-4044-B5B1-91A40E84C1C5}">
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1229,47 +1239,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.67897489565465097</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>-0.84401529032280498</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.16910664015767601</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.22433711211055099</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>4.0150693965746704</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>-3.7622633294257799</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>5.94283061894787E-5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1.68382622077317E-4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>1.0518810195537701E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>2.9635341485607699E-2</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
+      <c r="M6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/ancomBC-results-BH-genus-by-treatment.xlsx
+++ b/ancomBC-results-BH-genus-by-treatment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliemeyer/Documents/GitHub/AMR-16S-rRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A79171-9FEA-DA4D-8E67-5CB93EAE5BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E816A-BA61-BB4C-B360-6F4DEA41519C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{ECEB3C78-6A26-444C-A2C5-5AF7BB74EAFC}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ancomBC-results-BH-genus-by-treatment.xlsx
+++ b/ancomBC-results-BH-genus-by-treatment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliemeyer/Documents/GitHub/AMR-16S-rRNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliemeyer/Documents/AMR-16S-rRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E816A-BA61-BB4C-B360-6F4DEA41519C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74675E90-8188-2144-8D10-6B6A42C431E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{ECEB3C78-6A26-444C-A2C5-5AF7BB74EAFC}"/>
+    <workbookView xWindow="1140" yWindow="1820" windowWidth="36040" windowHeight="21000" xr2:uid="{ECEB3C78-6A26-444C-A2C5-5AF7BB74EAFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,9 +702,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -742,7 +742,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -848,7 +848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -990,7 +990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1001,23 +1001,23 @@
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
